--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>09-03-2025 00:00:00</t>
+          <t>10-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>09-03-2025 00:00:00</t>
+          <t>10-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>10-03-2025 00:00:00</t>
+          <t>11-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>10-03-2025 00:00:00</t>
+          <t>11-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45726</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="2">
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E15" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>15138.63</v>
+        <v>803.62</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E16" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G16" t="n">
-        <v>803.62</v>
+        <v>15138.63</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         <v>27855.71</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>23315.09</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43161.14</v>
+        <v>19846.05</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1657,10 +1657,10 @@
         <v>3299</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44" t="n">
-        <v>22089.92</v>
+        <v>19328.68</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>82875.48</v>
+        <v>80114.24000000001</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
         <v>134.04</v>
       </c>
       <c r="F69" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G69" t="n">
-        <v>35448.88</v>
+        <v>35336.7</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         <v>117.79</v>
       </c>
       <c r="F73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" t="n">
-        <v>1454.18</v>
+        <v>1350.31</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
         <v>265.86</v>
       </c>
       <c r="F76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>3413.54</v>
+        <v>2888.38</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G92" t="n">
-        <v>5721.6</v>
+        <v>5453.4</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3163,10 +3163,10 @@
         <v>35.13</v>
       </c>
       <c r="F94" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G94" t="n">
-        <v>1470</v>
+        <v>1234.8</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>135472.09</v>
+        <v>134227.48</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4023,10 +4023,10 @@
         <v>59.12</v>
       </c>
       <c r="F126" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G126" t="n">
-        <v>3809.96</v>
+        <v>3760.48</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4085,10 +4085,10 @@
         <v>59.12</v>
       </c>
       <c r="F128" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G128" t="n">
-        <v>5690.2</v>
+        <v>5640.72</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>18106.09</v>
+        <v>18007.13</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -4546,10 +4546,10 @@
         <v>60.96</v>
       </c>
       <c r="F145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G145" t="n">
-        <v>765.3</v>
+        <v>663.26</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         <v>163.67</v>
       </c>
       <c r="F147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G147" t="n">
-        <v>4002.7</v>
+        <v>3540.85</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -4763,10 +4763,10 @@
         <v>66.73999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G152" t="n">
-        <v>1173.06</v>
+        <v>1005.48</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -4794,10 +4794,10 @@
         <v>179.07</v>
       </c>
       <c r="F153" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G153" t="n">
-        <v>7242.92</v>
+        <v>6906.04</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -4825,10 +4825,10 @@
         <v>60.63</v>
       </c>
       <c r="F154" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G154" t="n">
-        <v>4312.9</v>
+        <v>4262.16</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -4918,10 +4918,10 @@
         <v>97.97</v>
       </c>
       <c r="F157" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G157" t="n">
-        <v>738</v>
+        <v>574</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G159" t="n">
-        <v>435.28</v>
+        <v>326.46</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5197,10 +5197,10 @@
         <v>185.03</v>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G166" t="n">
-        <v>774.35</v>
+        <v>619.48</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>35533.19</v>
+        <v>33986.41</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -5370,10 +5370,10 @@
         <v>86.88</v>
       </c>
       <c r="F173" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G173" t="n">
-        <v>1915</v>
+        <v>1685.2</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -5587,10 +5587,10 @@
         <v>65.03</v>
       </c>
       <c r="F180" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G180" t="n">
-        <v>2752.8</v>
+        <v>2580.75</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -5649,10 +5649,10 @@
         <v>86.13</v>
       </c>
       <c r="F182" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G182" t="n">
-        <v>6156</v>
+        <v>5994</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -5680,10 +5680,10 @@
         <v>116.29</v>
       </c>
       <c r="F183" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G183" t="n">
-        <v>4102</v>
+        <v>3896.9</v>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>33718.99</v>
+        <v>32950.04</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
@@ -6119,10 +6119,10 @@
         <v>61.69</v>
       </c>
       <c r="F200" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G200" t="n">
-        <v>435.28</v>
+        <v>380.87</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6150,10 +6150,10 @@
         <v>115.69</v>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G201" t="n">
-        <v>4080.4</v>
+        <v>3978.39</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>85.68000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G202" t="n">
-        <v>13698.52</v>
+        <v>13483.36</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         <v>56.32</v>
       </c>
       <c r="F206" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G206" t="n">
-        <v>943</v>
+        <v>895.85</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -6336,10 +6336,10 @@
         <v>88.77</v>
       </c>
       <c r="F207" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G207" t="n">
-        <v>9361.799999999999</v>
+        <v>9064.6</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>38074.05</v>
+        <v>37358.12</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G210" t="n">
-        <v>22331.72</v>
+        <v>21513.28</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6438,10 +6438,10 @@
         <v>22.11</v>
       </c>
       <c r="F211" t="n">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G211" t="n">
-        <v>27047</v>
+        <v>27010</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -6593,10 +6593,10 @@
         <v>166.85</v>
       </c>
       <c r="F216" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G216" t="n">
-        <v>837.84</v>
+        <v>558.5599999999999</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -6624,10 +6624,10 @@
         <v>166.85</v>
       </c>
       <c r="F217" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G217" t="n">
-        <v>2513.52</v>
+        <v>2373.88</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -6655,10 +6655,10 @@
         <v>288.89</v>
       </c>
       <c r="F218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G218" t="n">
-        <v>725.4299999999999</v>
+        <v>483.62</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>59816.2</v>
+        <v>58300.03</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7218,10 +7218,10 @@
         <v>98</v>
       </c>
       <c r="F239" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G239" t="n">
-        <v>902.33</v>
+        <v>328.12</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7249,10 +7249,10 @@
         <v>37.34</v>
       </c>
       <c r="F240" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G240" t="n">
-        <v>1187.5</v>
+        <v>1125</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7280,10 +7280,10 @@
         <v>353.35</v>
       </c>
       <c r="F241" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G241" t="n">
-        <v>20702.5</v>
+        <v>20406.75</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7311,10 +7311,10 @@
         <v>101.4</v>
       </c>
       <c r="F242" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G242" t="n">
-        <v>594.02</v>
+        <v>509.16</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7342,10 +7342,10 @@
         <v>88.83</v>
       </c>
       <c r="F243" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G243" t="n">
-        <v>6109.74</v>
+        <v>6031.41</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -7404,10 +7404,10 @@
         <v>58.16</v>
       </c>
       <c r="F245" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G245" t="n">
-        <v>1412.01</v>
+        <v>1314.63</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -7497,10 +7497,10 @@
         <v>38.33</v>
       </c>
       <c r="F248" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G248" t="n">
-        <v>2950.44</v>
+        <v>2822.16</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -7559,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G250" t="n">
-        <v>609.3099999999999</v>
+        <v>515.5700000000001</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -7714,10 +7714,10 @@
         <v>629.41</v>
       </c>
       <c r="F255" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G255" t="n">
-        <v>10545.57</v>
+        <v>9435.51</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>53855.76</v>
+        <v>51330.65</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         <v>35493.12</v>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>27386.67</v>
+        <v>0</v>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>27386.67</v>
+        <v>0</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
@@ -8330,10 +8330,10 @@
         <v>57.51</v>
       </c>
       <c r="F277" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G277" t="n">
-        <v>3081.6</v>
+        <v>3033.45</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -8423,10 +8423,10 @@
         <v>130.25</v>
       </c>
       <c r="F280" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G280" t="n">
-        <v>1090.3</v>
+        <v>981.27</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -8454,10 +8454,10 @@
         <v>115.77</v>
       </c>
       <c r="F281" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G281" t="n">
-        <v>2616.3</v>
+        <v>2519.4</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -8547,10 +8547,10 @@
         <v>152.02</v>
       </c>
       <c r="F284" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G284" t="n">
-        <v>12912.04</v>
+        <v>12311.48</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -8578,10 +8578,10 @@
         <v>301.78</v>
       </c>
       <c r="F285" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G285" t="n">
-        <v>2682.45</v>
+        <v>2384.4</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -8609,10 +8609,10 @@
         <v>77.33</v>
       </c>
       <c r="F286" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G286" t="n">
-        <v>8172.66</v>
+        <v>8096.28</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -8640,10 +8640,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G287" t="n">
-        <v>226.71</v>
+        <v>151.14</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -8702,10 +8702,10 @@
         <v>26.75</v>
       </c>
       <c r="F289" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G289" t="n">
-        <v>2668.42</v>
+        <v>2615.58</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>72966.00999999999</v>
+        <v>71608.53</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -8835,10 +8835,10 @@
         <v>25.65</v>
       </c>
       <c r="F294" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G294" t="n">
-        <v>214.8</v>
+        <v>193.32</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1052.7</v>
+        <v>1031.22</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
@@ -8937,10 +8937,10 @@
         <v>1031.03</v>
       </c>
       <c r="F298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G298" t="n">
-        <v>8728.290000000001</v>
+        <v>7758.48</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>8816.450000000001</v>
+        <v>7846.64</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr"/>
@@ -9132,10 +9132,10 @@
         <v>32.13</v>
       </c>
       <c r="F305" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G305" t="n">
-        <v>1183.16</v>
+        <v>1156.27</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7650.16</v>
+        <v>7623.27</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9234,10 +9234,10 @@
         <v>70.69</v>
       </c>
       <c r="F309" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G309" t="n">
-        <v>3923.5</v>
+        <v>3857</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -9327,10 +9327,10 @@
         <v>64.27</v>
       </c>
       <c r="F312" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G312" t="n">
-        <v>8402.549999999999</v>
+        <v>8160.75</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         <v>27.1</v>
       </c>
       <c r="F313" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G313" t="n">
-        <v>2140.32</v>
+        <v>2063.88</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -9389,10 +9389,10 @@
         <v>52.24</v>
       </c>
       <c r="F314" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G314" t="n">
-        <v>933.47</v>
+        <v>884.34</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
@@ -9420,10 +9420,10 @@
         <v>44.36</v>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G315" t="n">
-        <v>417.4</v>
+        <v>333.92</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -9482,10 +9482,10 @@
         <v>59.67</v>
       </c>
       <c r="F317" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G317" t="n">
-        <v>4546.53</v>
+        <v>4434.27</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -9575,10 +9575,10 @@
         <v>195.87</v>
       </c>
       <c r="F320" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G320" t="n">
-        <v>9948.42</v>
+        <v>9579.959999999999</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -9606,10 +9606,10 @@
         <v>46.4</v>
       </c>
       <c r="F321" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G321" t="n">
-        <v>1178.55</v>
+        <v>1091.25</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -9668,10 +9668,10 @@
         <v>83.56999999999999</v>
       </c>
       <c r="F323" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G323" t="n">
-        <v>471.66</v>
+        <v>157.22</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -9761,10 +9761,10 @@
         <v>135.93</v>
       </c>
       <c r="F326" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G326" t="n">
-        <v>8310.25</v>
+        <v>7798.85</v>
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -9792,10 +9792,10 @@
         <v>146.88</v>
       </c>
       <c r="F327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G327" t="n">
-        <v>276.34</v>
+        <v>138.17</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>50.39</v>
       </c>
       <c r="F328" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G328" t="n">
-        <v>2370</v>
+        <v>2275.2</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -9854,10 +9854,10 @@
         <v>97.93000000000001</v>
       </c>
       <c r="F329" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G329" t="n">
-        <v>18331.88</v>
+        <v>17779.16</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -9947,10 +9947,10 @@
         <v>42.84</v>
       </c>
       <c r="F332" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G332" t="n">
-        <v>2297.1</v>
+        <v>2256.8</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -9978,10 +9978,10 @@
         <v>16.87</v>
       </c>
       <c r="F333" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G333" t="n">
-        <v>412.1</v>
+        <v>332.85</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -10009,10 +10009,10 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F334" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G334" t="n">
-        <v>2802.15</v>
+        <v>2677.61</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -10071,10 +10071,10 @@
         <v>198.21</v>
       </c>
       <c r="F336" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G336" t="n">
-        <v>13423.68</v>
+        <v>13237.24</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -10133,10 +10133,10 @@
         <v>170.29</v>
       </c>
       <c r="F338" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G338" t="n">
-        <v>4004.75</v>
+        <v>3844.56</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -10164,10 +10164,10 @@
         <v>13.25</v>
       </c>
       <c r="F339" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G339" t="n">
-        <v>1521.34</v>
+        <v>1508.87</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -10195,10 +10195,10 @@
         <v>30.6</v>
       </c>
       <c r="F340" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G340" t="n">
-        <v>3280.92</v>
+        <v>3194.58</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -10226,10 +10226,10 @@
         <v>53.05</v>
       </c>
       <c r="F341" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G341" t="n">
-        <v>1446.81</v>
+        <v>1396.92</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -10257,10 +10257,10 @@
         <v>78.33</v>
       </c>
       <c r="F342" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G342" t="n">
-        <v>4568.78</v>
+        <v>4347.71</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -10288,10 +10288,10 @@
         <v>67.31999999999999</v>
       </c>
       <c r="F343" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G343" t="n">
-        <v>3863.13</v>
+        <v>3673.14</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -10350,10 +10350,10 @@
         <v>72.68000000000001</v>
       </c>
       <c r="F345" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G345" t="n">
-        <v>3418.5</v>
+        <v>3350.13</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -10381,10 +10381,10 @@
         <v>38.16</v>
       </c>
       <c r="F346" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G346" t="n">
-        <v>1866.28</v>
+        <v>1794.5</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>134806.33</v>
+        <v>130818.8</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -10842,10 +10842,10 @@
         <v>10.45</v>
       </c>
       <c r="F363" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G363" t="n">
-        <v>98.3</v>
+        <v>78.64</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>144.91</v>
+        <v>125.25</v>
       </c>
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr"/>
@@ -10944,10 +10944,10 @@
         <v>216.66</v>
       </c>
       <c r="F367" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G367" t="n">
-        <v>4171.05</v>
+        <v>3989.7</v>
       </c>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8644.469999999999</v>
+        <v>8463.120000000001</v>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr"/>
@@ -11263,10 +11263,10 @@
         <v>35.74</v>
       </c>
       <c r="F378" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G378" t="n">
-        <v>389.09</v>
+        <v>329.23</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -11387,10 +11387,10 @@
         <v>49.5</v>
       </c>
       <c r="F382" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G382" t="n">
-        <v>579.88</v>
+        <v>538.46</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>26.32</v>
       </c>
       <c r="F387" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G387" t="n">
-        <v>1783.62</v>
+        <v>1739.58</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -11604,10 +11604,10 @@
         <v>47.16</v>
       </c>
       <c r="F389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G389" t="n">
-        <v>78.98</v>
+        <v>39.49</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -11666,10 +11666,10 @@
         <v>44.98</v>
       </c>
       <c r="F391" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G391" t="n">
-        <v>451.8</v>
+        <v>376.5</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -11697,10 +11697,10 @@
         <v>116.1</v>
       </c>
       <c r="F392" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G392" t="n">
-        <v>1749.06</v>
+        <v>1651.89</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9929.620000000001</v>
+        <v>9572.34</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -12858,10 +12858,10 @@
         <v>85.54000000000001</v>
       </c>
       <c r="F433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G433" t="n">
-        <v>143.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr"/>
@@ -13075,10 +13075,10 @@
         <v>31.68</v>
       </c>
       <c r="F440" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G440" t="n">
-        <v>3966.06</v>
+        <v>3938.13</v>
       </c>
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr"/>
@@ -13509,10 +13509,10 @@
         <v>36.34</v>
       </c>
       <c r="F454" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G454" t="n">
-        <v>790.92</v>
+        <v>699.66</v>
       </c>
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>45399.64</v>
+        <v>45208.85</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -13682,10 +13682,10 @@
         <v>35.2</v>
       </c>
       <c r="F461" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G461" t="n">
-        <v>3575.88</v>
+        <v>3476.55</v>
       </c>
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr"/>
@@ -13713,10 +13713,10 @@
         <v>16.88</v>
       </c>
       <c r="F462" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G462" t="n">
-        <v>4646.98</v>
+        <v>4535.96</v>
       </c>
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr"/>
@@ -13744,10 +13744,10 @@
         <v>35.2</v>
       </c>
       <c r="F463" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G463" t="n">
-        <v>2085.93</v>
+        <v>1986.6</v>
       </c>
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr"/>
@@ -13899,10 +13899,10 @@
         <v>45.9</v>
       </c>
       <c r="F468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>86.36</v>
+        <v>0</v>
       </c>
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr"/>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>11998.83</v>
+        <v>11602.79</v>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
@@ -14852,10 +14852,10 @@
         <v>779.09</v>
       </c>
       <c r="F503" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G503" t="n">
-        <v>2608.4</v>
+        <v>1956.3</v>
       </c>
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr"/>
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>12228.95</v>
+        <v>11576.85</v>
       </c>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr"/>
@@ -15428,10 +15428,10 @@
         <v>21.99</v>
       </c>
       <c r="F523" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G523" t="n">
-        <v>304.08</v>
+        <v>173.76</v>
       </c>
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr"/>
@@ -15490,10 +15490,10 @@
         <v>91.81</v>
       </c>
       <c r="F525" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G525" t="n">
-        <v>997.48</v>
+        <v>906.8</v>
       </c>
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>19615.29</v>
+        <v>19394.29</v>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr"/>
@@ -16305,10 +16305,10 @@
         <v>67.63</v>
       </c>
       <c r="F552" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G552" t="n">
-        <v>1017.76</v>
+        <v>826.9299999999999</v>
       </c>
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr"/>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>8305.85</v>
+        <v>8115.02</v>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr"/>
@@ -17444,10 +17444,10 @@
         <v>28.98</v>
       </c>
       <c r="F593" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G593" t="n">
-        <v>145.56</v>
+        <v>0</v>
       </c>
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr"/>
@@ -17475,10 +17475,10 @@
         <v>174.44</v>
       </c>
       <c r="F594" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>730.05</v>
+        <v>0</v>
       </c>
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr"/>
@@ -17568,10 +17568,10 @@
         <v>113.59</v>
       </c>
       <c r="F597" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G597" t="n">
-        <v>1806.14</v>
+        <v>1520.96</v>
       </c>
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr"/>
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>23988.4</v>
+        <v>22827.61</v>
       </c>
       <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
@@ -17763,10 +17763,10 @@
         <v>251.34</v>
       </c>
       <c r="F604" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G604" t="n">
-        <v>14094.79</v>
+        <v>13884.42</v>
       </c>
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr"/>
@@ -17813,7 +17813,7 @@
         </is>
       </c>
       <c r="B606" t="n">
-        <v>33060.4</v>
+        <v>32850.03</v>
       </c>
       <c r="C606" t="inlineStr"/>
       <c r="D606" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1735653.52</v>
+        <v>1663830.61</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1735653.52</v>
+        <v>1663830.61</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>11-03-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>11-03-2025 00:00:00</t>
+          <t>12-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45727</v>
+        <v>45728</v>
       </c>
     </row>
     <row r="2">
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E15" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>803.62</v>
+        <v>15138.63</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E16" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>15138.63</v>
+        <v>803.62</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>13-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>12-03-2025 00:00:00</t>
+          <t>13-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45728</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="2">
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>13-03-2025 00:00:00</t>
+          <t>14-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>13-03-2025 00:00:00</t>
+          <t>14-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45729</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="2">
@@ -620,10 +620,10 @@
         <v>278.11</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>698.34</v>
+        <v>232.78</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2987.94</v>
+        <v>2522.38</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1032,10 +1032,10 @@
         <v>398.95</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>2337.44</v>
+        <v>1335.68</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         <v>173.93</v>
       </c>
       <c r="F22" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="n">
-        <v>12083.97</v>
+        <v>11938.38</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1094,10 +1094,10 @@
         <v>188.41</v>
       </c>
       <c r="F23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>11196.7</v>
+        <v>11039</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84590.59</v>
+        <v>83285.53999999999</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1400,10 +1400,10 @@
         <v>27.96</v>
       </c>
       <c r="F35" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" t="n">
-        <v>2392.39</v>
+        <v>2339.81</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5321.09</v>
+        <v>5268.51</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1657,10 +1657,10 @@
         <v>3299</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>19328.68</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>80114.24000000001</v>
+        <v>60785.56</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -2140,10 +2140,10 @@
         <v>113.53</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>760.16</v>
+        <v>665.14</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2450,10 +2450,10 @@
         <v>50.9</v>
       </c>
       <c r="F71" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G71" t="n">
-        <v>9833.1</v>
+        <v>9743.299999999999</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         <v>117.79</v>
       </c>
       <c r="F73" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G73" t="n">
-        <v>1350.31</v>
+        <v>934.83</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2543,10 +2543,10 @@
         <v>23.02</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G74" t="n">
-        <v>432.06</v>
+        <v>386.58</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
         <v>265.86</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>2888.38</v>
+        <v>2625.8</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2791,10 +2791,10 @@
         <v>19.77</v>
       </c>
       <c r="F82" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G82" t="n">
-        <v>1157.8</v>
+        <v>893.16</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -2822,10 +2822,10 @@
         <v>74.29000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="n">
-        <v>2051.61</v>
+        <v>1927.27</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="G92" t="n">
-        <v>5453.4</v>
+        <v>4335.9</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3163,10 +3163,10 @@
         <v>35.13</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G94" t="n">
-        <v>1234.8</v>
+        <v>940.8</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>134227.48</v>
+        <v>131518.64</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4054,10 +4054,10 @@
         <v>59.12</v>
       </c>
       <c r="F127" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G127" t="n">
-        <v>4849.04</v>
+        <v>4799.56</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>18007.13</v>
+        <v>17957.65</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -4484,10 +4484,10 @@
         <v>45.85</v>
       </c>
       <c r="F143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G143" t="n">
-        <v>215.65</v>
+        <v>172.52</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
         <v>80.22</v>
       </c>
       <c r="F146" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G146" t="n">
-        <v>7395.08</v>
+        <v>7017.78</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -4825,10 +4825,10 @@
         <v>60.63</v>
       </c>
       <c r="F154" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G154" t="n">
-        <v>4262.16</v>
+        <v>4109.94</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -4887,10 +4887,10 @@
         <v>93.31</v>
       </c>
       <c r="F156" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G156" t="n">
-        <v>1717.98</v>
+        <v>1561.8</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -4949,10 +4949,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
-        <v>380.87</v>
+        <v>326.46</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
-        <v>326.46</v>
+        <v>217.64</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         <v>50.44</v>
       </c>
       <c r="F165" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G165" t="n">
-        <v>2617.02</v>
+        <v>2574.81</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>33986.41</v>
+        <v>33052.14</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -5370,10 +5370,10 @@
         <v>86.88</v>
       </c>
       <c r="F173" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G173" t="n">
-        <v>1685.2</v>
+        <v>1302.2</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -5432,10 +5432,10 @@
         <v>83.05</v>
       </c>
       <c r="F175" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G175" t="n">
-        <v>1946</v>
+        <v>1876.5</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -5494,10 +5494,10 @@
         <v>109.16</v>
       </c>
       <c r="F177" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G177" t="n">
-        <v>1644.84</v>
+        <v>1553.46</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -5649,10 +5649,10 @@
         <v>86.13</v>
       </c>
       <c r="F182" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G182" t="n">
-        <v>5994</v>
+        <v>5832</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -5680,10 +5680,10 @@
         <v>116.29</v>
       </c>
       <c r="F183" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G183" t="n">
-        <v>3896.9</v>
+        <v>3691.8</v>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>32950.04</v>
+        <v>32039.06</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
@@ -6119,10 +6119,10 @@
         <v>61.69</v>
       </c>
       <c r="F200" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G200" t="n">
-        <v>380.87</v>
+        <v>326.46</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6150,10 +6150,10 @@
         <v>115.69</v>
       </c>
       <c r="F201" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G201" t="n">
-        <v>3978.39</v>
+        <v>3876.38</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>85.68000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G202" t="n">
-        <v>13483.36</v>
+        <v>13053.04</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6212,10 +6212,10 @@
         <v>106.44</v>
       </c>
       <c r="F203" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G203" t="n">
-        <v>5612.67</v>
+        <v>4989.04</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         <v>56.32</v>
       </c>
       <c r="F206" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G206" t="n">
-        <v>895.85</v>
+        <v>848.7</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -6336,10 +6336,10 @@
         <v>88.77</v>
       </c>
       <c r="F207" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G207" t="n">
-        <v>9064.6</v>
+        <v>8916</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>37358.12</v>
+        <v>35952</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G210" t="n">
-        <v>21513.28</v>
+        <v>20811.76</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6438,10 +6438,10 @@
         <v>22.11</v>
       </c>
       <c r="F211" t="n">
-        <v>1460</v>
+        <v>1417</v>
       </c>
       <c r="G211" t="n">
-        <v>27010</v>
+        <v>26214.5</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -6531,10 +6531,10 @@
         <v>22.6</v>
       </c>
       <c r="F214" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G214" t="n">
-        <v>1551.25</v>
+        <v>1530</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -6593,10 +6593,10 @@
         <v>166.85</v>
       </c>
       <c r="F216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G216" t="n">
-        <v>558.5599999999999</v>
+        <v>279.28</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -6624,10 +6624,10 @@
         <v>166.85</v>
       </c>
       <c r="F217" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G217" t="n">
-        <v>2373.88</v>
+        <v>2094.6</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -6655,10 +6655,10 @@
         <v>288.89</v>
       </c>
       <c r="F218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>483.62</v>
+        <v>241.81</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>58300.03</v>
+        <v>55981.39</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7218,10 +7218,10 @@
         <v>98</v>
       </c>
       <c r="F239" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G239" t="n">
-        <v>328.12</v>
+        <v>246.09</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7280,10 +7280,10 @@
         <v>353.35</v>
       </c>
       <c r="F241" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G241" t="n">
-        <v>20406.75</v>
+        <v>19223.75</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7311,10 +7311,10 @@
         <v>101.4</v>
       </c>
       <c r="F242" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G242" t="n">
-        <v>509.16</v>
+        <v>169.72</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7404,10 +7404,10 @@
         <v>58.16</v>
       </c>
       <c r="F245" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G245" t="n">
-        <v>1314.63</v>
+        <v>876.42</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -7435,10 +7435,10 @@
         <v>65.98</v>
       </c>
       <c r="F246" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G246" t="n">
-        <v>496.48</v>
+        <v>434.42</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -7466,10 +7466,10 @@
         <v>44.98</v>
       </c>
       <c r="F247" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G247" t="n">
-        <v>1355.4</v>
+        <v>1204.8</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -7497,10 +7497,10 @@
         <v>38.33</v>
       </c>
       <c r="F248" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G248" t="n">
-        <v>2822.16</v>
+        <v>2790.09</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -7559,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G250" t="n">
-        <v>515.5700000000001</v>
+        <v>328.09</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -7683,10 +7683,10 @@
         <v>582.6900000000001</v>
       </c>
       <c r="F254" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G254" t="n">
-        <v>2569.15</v>
+        <v>1541.49</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -7714,10 +7714,10 @@
         <v>629.41</v>
       </c>
       <c r="F255" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G255" t="n">
-        <v>9435.51</v>
+        <v>8880.48</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -7776,10 +7776,10 @@
         <v>479.92</v>
       </c>
       <c r="F257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>846.42</v>
+        <v>423.21</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>51330.65</v>
+        <v>46849.86</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -8547,10 +8547,10 @@
         <v>152.02</v>
       </c>
       <c r="F284" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G284" t="n">
-        <v>12311.48</v>
+        <v>12011.2</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -8640,10 +8640,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>151.14</v>
+        <v>0</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -8702,10 +8702,10 @@
         <v>26.75</v>
       </c>
       <c r="F289" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G289" t="n">
-        <v>2615.58</v>
+        <v>2562.74</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>71608.53</v>
+        <v>71104.27</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -8804,10 +8804,10 @@
         <v>66.73999999999999</v>
       </c>
       <c r="F293" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G293" t="n">
-        <v>837.9</v>
+        <v>782.04</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -8835,10 +8835,10 @@
         <v>25.65</v>
       </c>
       <c r="F294" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G294" t="n">
-        <v>193.32</v>
+        <v>171.84</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1031.22</v>
+        <v>953.88</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
@@ -9132,10 +9132,10 @@
         <v>32.13</v>
       </c>
       <c r="F305" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G305" t="n">
-        <v>1156.27</v>
+        <v>1102.49</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7623.27</v>
+        <v>7569.49</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9234,10 +9234,10 @@
         <v>70.69</v>
       </c>
       <c r="F309" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G309" t="n">
-        <v>3857</v>
+        <v>3724</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -9327,10 +9327,10 @@
         <v>64.27</v>
       </c>
       <c r="F312" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G312" t="n">
-        <v>8160.75</v>
+        <v>7677.15</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         <v>27.1</v>
       </c>
       <c r="F313" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G313" t="n">
-        <v>2063.88</v>
+        <v>1936.48</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -9389,10 +9389,10 @@
         <v>52.24</v>
       </c>
       <c r="F314" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G314" t="n">
-        <v>884.34</v>
+        <v>736.95</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
@@ -9451,10 +9451,10 @@
         <v>130.57</v>
       </c>
       <c r="F316" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G316" t="n">
-        <v>1105.29</v>
+        <v>736.86</v>
       </c>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
@@ -9482,10 +9482,10 @@
         <v>59.67</v>
       </c>
       <c r="F317" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G317" t="n">
-        <v>4434.27</v>
+        <v>4378.14</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -9513,10 +9513,10 @@
         <v>58.76</v>
       </c>
       <c r="F318" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G318" t="n">
-        <v>884.3200000000001</v>
+        <v>718.51</v>
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
@@ -9544,10 +9544,10 @@
         <v>65.3</v>
       </c>
       <c r="F319" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G319" t="n">
-        <v>1289.61</v>
+        <v>1166.79</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -9575,10 +9575,10 @@
         <v>195.87</v>
       </c>
       <c r="F320" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G320" t="n">
-        <v>9579.959999999999</v>
+        <v>9211.5</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -9606,10 +9606,10 @@
         <v>46.4</v>
       </c>
       <c r="F321" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G321" t="n">
-        <v>1091.25</v>
+        <v>1003.95</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -9637,10 +9637,10 @@
         <v>46.4</v>
       </c>
       <c r="F322" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G322" t="n">
-        <v>3535.65</v>
+        <v>3492</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -9668,10 +9668,10 @@
         <v>83.56999999999999</v>
       </c>
       <c r="F323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>157.22</v>
+        <v>0</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>50.39</v>
       </c>
       <c r="F328" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G328" t="n">
-        <v>2275.2</v>
+        <v>2180.4</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -9854,10 +9854,10 @@
         <v>97.93000000000001</v>
       </c>
       <c r="F329" t="n">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G329" t="n">
-        <v>17779.16</v>
+        <v>16765.84</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -9885,10 +9885,10 @@
         <v>50.39</v>
       </c>
       <c r="F330" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G330" t="n">
-        <v>1137.6</v>
+        <v>948</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -9947,10 +9947,10 @@
         <v>42.84</v>
       </c>
       <c r="F332" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G332" t="n">
-        <v>2256.8</v>
+        <v>2015</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -9978,10 +9978,10 @@
         <v>16.87</v>
       </c>
       <c r="F333" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G333" t="n">
-        <v>332.85</v>
+        <v>237.75</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -10009,10 +10009,10 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F334" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G334" t="n">
-        <v>2677.61</v>
+        <v>2490.8</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -10071,10 +10071,10 @@
         <v>198.21</v>
       </c>
       <c r="F336" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G336" t="n">
-        <v>13237.24</v>
+        <v>12677.92</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -10102,10 +10102,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F337" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G337" t="n">
-        <v>8420.49</v>
+        <v>8276.549999999999</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10164,10 +10164,10 @@
         <v>13.25</v>
       </c>
       <c r="F339" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G339" t="n">
-        <v>1508.87</v>
+        <v>1496.4</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -10195,10 +10195,10 @@
         <v>30.6</v>
       </c>
       <c r="F340" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G340" t="n">
-        <v>3194.58</v>
+        <v>3137.02</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -10226,10 +10226,10 @@
         <v>53.05</v>
       </c>
       <c r="F341" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G341" t="n">
-        <v>1396.92</v>
+        <v>1147.47</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -10257,10 +10257,10 @@
         <v>78.33</v>
       </c>
       <c r="F342" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G342" t="n">
-        <v>4347.71</v>
+        <v>3905.57</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -10288,10 +10288,10 @@
         <v>67.31999999999999</v>
       </c>
       <c r="F343" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G343" t="n">
-        <v>3673.14</v>
+        <v>3293.16</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -10350,10 +10350,10 @@
         <v>72.68000000000001</v>
       </c>
       <c r="F345" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G345" t="n">
-        <v>3350.13</v>
+        <v>3213.39</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -10381,10 +10381,10 @@
         <v>38.16</v>
       </c>
       <c r="F346" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G346" t="n">
-        <v>1794.5</v>
+        <v>1722.72</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>130818.8</v>
+        <v>124682.78</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -10944,10 +10944,10 @@
         <v>216.66</v>
       </c>
       <c r="F367" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G367" t="n">
-        <v>3989.7</v>
+        <v>3808.35</v>
       </c>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8463.120000000001</v>
+        <v>8281.77</v>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr"/>
@@ -11263,10 +11263,10 @@
         <v>35.74</v>
       </c>
       <c r="F378" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G378" t="n">
-        <v>329.23</v>
+        <v>209.51</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -11387,10 +11387,10 @@
         <v>49.5</v>
       </c>
       <c r="F382" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G382" t="n">
-        <v>538.46</v>
+        <v>497.04</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -11511,10 +11511,10 @@
         <v>11.28</v>
       </c>
       <c r="F386" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G386" t="n">
-        <v>1132.8</v>
+        <v>1123.36</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>26.32</v>
       </c>
       <c r="F387" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G387" t="n">
-        <v>1739.58</v>
+        <v>1695.54</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -11573,10 +11573,10 @@
         <v>47.16</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>39.49</v>
+        <v>0</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -11604,10 +11604,10 @@
         <v>47.16</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>39.49</v>
+        <v>0</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9572.34</v>
+        <v>9278.74</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -12765,10 +12765,10 @@
         <v>124.11</v>
       </c>
       <c r="F430" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G430" t="n">
-        <v>4881.89</v>
+        <v>4778.02</v>
       </c>
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr"/>
@@ -12858,10 +12858,10 @@
         <v>85.54000000000001</v>
       </c>
       <c r="F433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>71.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr"/>
@@ -12889,10 +12889,10 @@
         <v>85.54000000000001</v>
       </c>
       <c r="F434" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G434" t="n">
-        <v>1145.6</v>
+        <v>1074</v>
       </c>
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr"/>
@@ -13044,10 +13044,10 @@
         <v>62.23</v>
       </c>
       <c r="F439" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G439" t="n">
-        <v>2908.64</v>
+        <v>2524.48</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -13106,10 +13106,10 @@
         <v>32.74</v>
       </c>
       <c r="F441" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G441" t="n">
-        <v>1424.8</v>
+        <v>1370</v>
       </c>
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr"/>
@@ -13137,10 +13137,10 @@
         <v>32.74</v>
       </c>
       <c r="F442" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G442" t="n">
-        <v>2877</v>
+        <v>2685.2</v>
       </c>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr"/>
@@ -13509,10 +13509,10 @@
         <v>36.34</v>
       </c>
       <c r="F454" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G454" t="n">
-        <v>699.66</v>
+        <v>547.5599999999999</v>
       </c>
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>45208.85</v>
+        <v>44178.92</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -13682,10 +13682,10 @@
         <v>35.2</v>
       </c>
       <c r="F461" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G461" t="n">
-        <v>3476.55</v>
+        <v>2648.8</v>
       </c>
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr"/>
@@ -13713,10 +13713,10 @@
         <v>16.88</v>
       </c>
       <c r="F462" t="n">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="G462" t="n">
-        <v>4535.96</v>
+        <v>4202.9</v>
       </c>
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr"/>
@@ -13744,10 +13744,10 @@
         <v>35.2</v>
       </c>
       <c r="F463" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G463" t="n">
-        <v>1986.6</v>
+        <v>1953.49</v>
       </c>
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr"/>
@@ -13806,10 +13806,10 @@
         <v>35.2</v>
       </c>
       <c r="F465" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G465" t="n">
-        <v>1589.28</v>
+        <v>1556.17</v>
       </c>
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr"/>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>11602.79</v>
+        <v>10375.76</v>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
@@ -14914,10 +14914,10 @@
         <v>991.27</v>
       </c>
       <c r="F505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G505" t="n">
-        <v>2489.1</v>
+        <v>1659.4</v>
       </c>
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr"/>
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>11576.85</v>
+        <v>10747.15</v>
       </c>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="inlineStr"/>
@@ -15428,10 +15428,10 @@
         <v>21.99</v>
       </c>
       <c r="F523" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G523" t="n">
-        <v>173.76</v>
+        <v>0</v>
       </c>
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr"/>
@@ -15490,10 +15490,10 @@
         <v>91.81</v>
       </c>
       <c r="F525" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G525" t="n">
-        <v>906.8</v>
+        <v>816.12</v>
       </c>
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>19394.29</v>
+        <v>19129.85</v>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr"/>
@@ -16057,10 +16057,10 @@
         <v>158.13</v>
       </c>
       <c r="F544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G544" t="n">
-        <v>446.19</v>
+        <v>297.46</v>
       </c>
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr"/>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>8115.02</v>
+        <v>7966.29</v>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr"/>
@@ -16890,10 +16890,10 @@
         <v>740.87</v>
       </c>
       <c r="F573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>620.1</v>
+        <v>0</v>
       </c>
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr"/>
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>12699.3</v>
+        <v>12079.2</v>
       </c>
       <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr"/>
@@ -17373,10 +17373,10 @@
         <v>14521.03</v>
       </c>
       <c r="F590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G590" t="n">
-        <v>12154.04</v>
+        <v>0</v>
       </c>
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>12154.04</v>
+        <v>0</v>
       </c>
       <c r="C591" t="inlineStr"/>
       <c r="D591" t="inlineStr"/>
@@ -17537,10 +17537,10 @@
         <v>47.95</v>
       </c>
       <c r="F596" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G596" t="n">
-        <v>3250.53</v>
+        <v>3090.01</v>
       </c>
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr"/>
@@ -17568,10 +17568,10 @@
         <v>113.59</v>
       </c>
       <c r="F597" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G597" t="n">
-        <v>1520.96</v>
+        <v>950.6</v>
       </c>
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr"/>
@@ -17630,10 +17630,10 @@
         <v>46.5</v>
       </c>
       <c r="F599" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G599" t="n">
-        <v>4282.3</v>
+        <v>4009.79</v>
       </c>
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
@@ -17661,10 +17661,10 @@
         <v>47.22</v>
       </c>
       <c r="F600" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G600" t="n">
-        <v>4704.07</v>
+        <v>4664.54</v>
       </c>
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr"/>
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>22827.61</v>
+        <v>21784.69</v>
       </c>
       <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1663830.61</v>
+        <v>1605306.38</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1663830.61</v>
+        <v>1605306.38</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>14-03-2025 00:00:00</t>
+          <t>15-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>14-03-2025 00:00:00</t>
+          <t>15-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45730</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="2">
@@ -1001,10 +1001,10 @@
         <v>347.36</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>5814.6</v>
+        <v>5233.14</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1032,10 +1032,10 @@
         <v>398.95</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1335.68</v>
+        <v>667.84</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         <v>173.93</v>
       </c>
       <c r="F22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="n">
-        <v>11938.38</v>
+        <v>11792.79</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1094,10 +1094,10 @@
         <v>188.41</v>
       </c>
       <c r="F23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" t="n">
-        <v>11039</v>
+        <v>10881.3</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83285.53999999999</v>
+        <v>81732.95</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
         <v>149.83</v>
       </c>
       <c r="F59" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
-        <v>4138.2</v>
+        <v>4012.8</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
         <v>134.04</v>
       </c>
       <c r="F69" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G69" t="n">
-        <v>35336.7</v>
+        <v>35224.52</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2450,10 +2450,10 @@
         <v>50.9</v>
       </c>
       <c r="F71" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G71" t="n">
-        <v>9743.299999999999</v>
+        <v>9698.4</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2512,10 +2512,10 @@
         <v>117.79</v>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>934.83</v>
+        <v>830.96</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
         <v>265.86</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G76" t="n">
-        <v>2625.8</v>
+        <v>2100.64</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2791,10 +2791,10 @@
         <v>19.77</v>
       </c>
       <c r="F82" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G82" t="n">
-        <v>893.16</v>
+        <v>793.92</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3008,10 +3008,10 @@
         <v>60.4</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>606.6</v>
+        <v>505.5</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G92" t="n">
-        <v>4335.9</v>
+        <v>4157.1</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>131518.64</v>
+        <v>130227.99</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3859,10 +3859,10 @@
         <v>57.16</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>47.84</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -3890,10 +3890,10 @@
         <v>117.49</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>331.59</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -3921,10 +3921,10 @@
         <v>73.51000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G122" t="n">
-        <v>2522.32</v>
+        <v>2399.28</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5074.46</v>
+        <v>4571.99</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
@@ -4515,10 +4515,10 @@
         <v>120.23</v>
       </c>
       <c r="F144" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G144" t="n">
-        <v>1610.08</v>
+        <v>1509.45</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -4546,10 +4546,10 @@
         <v>60.96</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>663.26</v>
+        <v>612.24</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
         <v>80.22</v>
       </c>
       <c r="F146" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G146" t="n">
-        <v>7017.78</v>
+        <v>6791.4</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -4732,10 +4732,10 @@
         <v>39.44</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>99.03</v>
+        <v>66.02</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -4825,10 +4825,10 @@
         <v>60.63</v>
       </c>
       <c r="F154" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G154" t="n">
-        <v>4109.94</v>
+        <v>4059.2</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>217.64</v>
+        <v>108.82</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>33052.14</v>
+        <v>32481.54</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -5370,10 +5370,10 @@
         <v>86.88</v>
       </c>
       <c r="F173" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G173" t="n">
-        <v>1302.2</v>
+        <v>1225.6</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -5401,10 +5401,10 @@
         <v>133.68</v>
       </c>
       <c r="F174" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G174" t="n">
-        <v>4363.32</v>
+        <v>4251.44</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -5432,10 +5432,10 @@
         <v>83.05</v>
       </c>
       <c r="F175" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G175" t="n">
-        <v>1876.5</v>
+        <v>1807</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -5556,10 +5556,10 @@
         <v>79.12</v>
       </c>
       <c r="F179" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G179" t="n">
-        <v>3708.88</v>
+        <v>3642.65</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>32039.06</v>
+        <v>31714.85</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
@@ -6088,10 +6088,10 @@
         <v>39.18</v>
       </c>
       <c r="F199" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G199" t="n">
-        <v>1796.6</v>
+        <v>1692.95</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -6150,10 +6150,10 @@
         <v>115.69</v>
       </c>
       <c r="F201" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G201" t="n">
-        <v>3876.38</v>
+        <v>3672.36</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>85.68000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G202" t="n">
-        <v>13053.04</v>
+        <v>12766.16</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6212,10 +6212,10 @@
         <v>106.44</v>
       </c>
       <c r="F203" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G203" t="n">
-        <v>4989.04</v>
+        <v>4632.68</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         <v>56.32</v>
       </c>
       <c r="F206" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G206" t="n">
-        <v>848.7</v>
+        <v>801.55</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>35952</v>
+        <v>34953.94</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G210" t="n">
-        <v>20811.76</v>
+        <v>20344.08</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6438,10 +6438,10 @@
         <v>22.11</v>
       </c>
       <c r="F211" t="n">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G211" t="n">
-        <v>26214.5</v>
+        <v>26140.5</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -6469,10 +6469,10 @@
         <v>60.26</v>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>50.43</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -6500,10 +6500,10 @@
         <v>146.39</v>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>245.04</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -6562,10 +6562,10 @@
         <v>82.84</v>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>69.33</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -6624,10 +6624,10 @@
         <v>166.85</v>
       </c>
       <c r="F217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G217" t="n">
-        <v>2094.6</v>
+        <v>1815.32</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -6748,10 +6748,10 @@
         <v>53.26</v>
       </c>
       <c r="F221" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G221" t="n">
-        <v>1159.08</v>
+        <v>1114.5</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>55981.39</v>
+        <v>54751.05</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7156,10 +7156,10 @@
         <v>38.33</v>
       </c>
       <c r="F237" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G237" t="n">
-        <v>320.7</v>
+        <v>256.56</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -7218,10 +7218,10 @@
         <v>98</v>
       </c>
       <c r="F239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G239" t="n">
-        <v>246.09</v>
+        <v>164.06</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7280,10 +7280,10 @@
         <v>353.35</v>
       </c>
       <c r="F241" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G241" t="n">
-        <v>19223.75</v>
+        <v>18632.25</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7311,10 +7311,10 @@
         <v>101.4</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
-        <v>169.72</v>
+        <v>84.86</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7404,10 +7404,10 @@
         <v>58.16</v>
       </c>
       <c r="F245" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G245" t="n">
-        <v>876.42</v>
+        <v>827.73</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -7435,10 +7435,10 @@
         <v>65.98</v>
       </c>
       <c r="F246" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G246" t="n">
-        <v>434.42</v>
+        <v>372.36</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -7497,10 +7497,10 @@
         <v>38.33</v>
       </c>
       <c r="F248" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G248" t="n">
-        <v>2790.09</v>
+        <v>2725.95</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -7559,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G250" t="n">
-        <v>328.09</v>
+        <v>281.22</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -7714,10 +7714,10 @@
         <v>629.41</v>
       </c>
       <c r="F255" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G255" t="n">
-        <v>8880.48</v>
+        <v>8325.450000000001</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -7745,10 +7745,10 @@
         <v>529.79</v>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>467.19</v>
+        <v>0</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>46849.86</v>
+        <v>44783.35</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -8299,10 +8299,10 @@
         <v>152.9</v>
       </c>
       <c r="F276" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G276" t="n">
-        <v>1791.72</v>
+        <v>1663.74</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -8547,10 +8547,10 @@
         <v>152.02</v>
       </c>
       <c r="F284" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G284" t="n">
-        <v>12011.2</v>
+        <v>11710.92</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -8702,10 +8702,10 @@
         <v>26.75</v>
       </c>
       <c r="F289" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G289" t="n">
-        <v>2562.74</v>
+        <v>2509.9</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>71104.27</v>
+        <v>70623.17</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -8804,10 +8804,10 @@
         <v>66.73999999999999</v>
       </c>
       <c r="F293" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G293" t="n">
-        <v>782.04</v>
+        <v>726.1799999999999</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>953.88</v>
+        <v>898.02</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr"/>
@@ -9008,10 +9008,10 @@
         <v>134.16</v>
       </c>
       <c r="F301" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G301" t="n">
-        <v>3368.4</v>
+        <v>3256.12</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -9101,10 +9101,10 @@
         <v>97.81</v>
       </c>
       <c r="F304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>289.8</v>
+        <v>0</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7569.49</v>
+        <v>7167.41</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9327,10 +9327,10 @@
         <v>64.27</v>
       </c>
       <c r="F312" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G312" t="n">
-        <v>7677.15</v>
+        <v>7012.2</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -9420,10 +9420,10 @@
         <v>44.36</v>
       </c>
       <c r="F315" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G315" t="n">
-        <v>333.92</v>
+        <v>292.18</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -9854,10 +9854,10 @@
         <v>97.93000000000001</v>
       </c>
       <c r="F329" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G329" t="n">
-        <v>16765.84</v>
+        <v>16213.12</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -9947,10 +9947,10 @@
         <v>42.84</v>
       </c>
       <c r="F332" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G332" t="n">
-        <v>2015</v>
+        <v>1934.4</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -9978,10 +9978,10 @@
         <v>16.87</v>
       </c>
       <c r="F333" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G333" t="n">
-        <v>237.75</v>
+        <v>174.35</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -10102,10 +10102,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F337" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G337" t="n">
-        <v>8276.549999999999</v>
+        <v>8204.58</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10195,10 +10195,10 @@
         <v>30.6</v>
       </c>
       <c r="F340" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G340" t="n">
-        <v>3137.02</v>
+        <v>3050.68</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -10257,10 +10257,10 @@
         <v>78.33</v>
       </c>
       <c r="F342" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G342" t="n">
-        <v>3905.57</v>
+        <v>3610.81</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -10288,10 +10288,10 @@
         <v>67.31999999999999</v>
       </c>
       <c r="F343" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G343" t="n">
-        <v>3293.16</v>
+        <v>3103.17</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>124682.78</v>
+        <v>122636.31</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -11263,10 +11263,10 @@
         <v>35.74</v>
       </c>
       <c r="F378" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G378" t="n">
-        <v>209.51</v>
+        <v>179.58</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -11294,10 +11294,10 @@
         <v>63.85</v>
       </c>
       <c r="F379" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G379" t="n">
-        <v>2939.2</v>
+        <v>2832.32</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>26.32</v>
       </c>
       <c r="F387" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G387" t="n">
-        <v>1695.54</v>
+        <v>1607.46</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -11666,10 +11666,10 @@
         <v>44.98</v>
       </c>
       <c r="F391" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G391" t="n">
-        <v>376.5</v>
+        <v>338.85</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9278.74</v>
+        <v>9016.200000000001</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -12920,10 +12920,10 @@
         <v>61.04</v>
       </c>
       <c r="F435" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G435" t="n">
-        <v>1532.4</v>
+        <v>1481.32</v>
       </c>
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr"/>
@@ -12982,10 +12982,10 @@
         <v>144.78</v>
       </c>
       <c r="F437" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G437" t="n">
-        <v>848.1900000000001</v>
+        <v>727.02</v>
       </c>
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr"/>
@@ -13044,10 +13044,10 @@
         <v>62.23</v>
       </c>
       <c r="F439" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G439" t="n">
-        <v>2524.48</v>
+        <v>2195.2</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -13075,10 +13075,10 @@
         <v>31.68</v>
       </c>
       <c r="F440" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G440" t="n">
-        <v>3938.13</v>
+        <v>3910.2</v>
       </c>
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr"/>
@@ -13137,10 +13137,10 @@
         <v>32.74</v>
       </c>
       <c r="F442" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G442" t="n">
-        <v>2685.2</v>
+        <v>2657.8</v>
       </c>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>44178.92</v>
+        <v>43622.06</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -15840,10 +15840,10 @@
         <v>115.67</v>
       </c>
       <c r="F537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>108.81</v>
+        <v>0</v>
       </c>
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr"/>
@@ -15964,10 +15964,10 @@
         <v>86.98</v>
       </c>
       <c r="F541" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G541" t="n">
-        <v>2290.4</v>
+        <v>2208.6</v>
       </c>
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr"/>
@@ -16057,10 +16057,10 @@
         <v>158.13</v>
       </c>
       <c r="F544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G544" t="n">
-        <v>297.46</v>
+        <v>0</v>
       </c>
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr"/>
@@ -16088,10 +16088,10 @@
         <v>56.11</v>
       </c>
       <c r="F545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545" t="n">
-        <v>52.77</v>
+        <v>0</v>
       </c>
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr"/>
@@ -16336,10 +16336,10 @@
         <v>36.48</v>
       </c>
       <c r="F553" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G553" t="n">
-        <v>2676.18</v>
+        <v>2641.87</v>
       </c>
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr"/>
@@ -16367,10 +16367,10 @@
         <v>60.58</v>
       </c>
       <c r="F554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>56.99</v>
+        <v>0</v>
       </c>
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr"/>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>7966.29</v>
+        <v>7334.15</v>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr"/>
@@ -16983,10 +16983,10 @@
         <v>4316.62</v>
       </c>
       <c r="F576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G576" t="n">
-        <v>10839</v>
+        <v>7226</v>
       </c>
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr"/>
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>12079.2</v>
+        <v>8466.200000000001</v>
       </c>
       <c r="C578" t="inlineStr"/>
       <c r="D578" t="inlineStr"/>
@@ -17537,10 +17537,10 @@
         <v>47.95</v>
       </c>
       <c r="F596" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G596" t="n">
-        <v>3090.01</v>
+        <v>3009.75</v>
       </c>
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr"/>
@@ -17568,10 +17568,10 @@
         <v>113.59</v>
       </c>
       <c r="F597" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G597" t="n">
-        <v>950.6</v>
+        <v>0</v>
       </c>
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr"/>
@@ -17630,10 +17630,10 @@
         <v>46.5</v>
       </c>
       <c r="F599" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G599" t="n">
-        <v>4009.79</v>
+        <v>3970.86</v>
       </c>
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>21784.69</v>
+        <v>20714.9</v>
       </c>
       <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1605306.38</v>
+        <v>1587651.11</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1605306.38</v>
+        <v>1587651.11</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -846,10 +846,10 @@
         <v>463.78</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>15138.63</v>
+        <v>14750.46</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -908,10 +908,10 @@
         <v>434.75</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>17102.36</v>
+        <v>16738.48</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1001,10 +1001,10 @@
         <v>347.36</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>5233.14</v>
+        <v>4942.41</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81732.95</v>
+        <v>80690.17</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
         <v>134.04</v>
       </c>
       <c r="F69" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G69" t="n">
-        <v>35224.52</v>
+        <v>35000.16</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2574,10 +2574,10 @@
         <v>71.2</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" t="n">
-        <v>2672.16</v>
+        <v>2461.2</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2977,10 +2977,10 @@
         <v>300.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>251.18</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3039,10 +3039,10 @@
         <v>135.32</v>
       </c>
       <c r="F90" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G90" t="n">
-        <v>4530.4</v>
+        <v>4303.88</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G92" t="n">
-        <v>4157.1</v>
+        <v>3531.3</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>130227.99</v>
+        <v>128689.17</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -4023,10 +4023,10 @@
         <v>59.12</v>
       </c>
       <c r="F126" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G126" t="n">
-        <v>3760.48</v>
+        <v>3711</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4178,10 +4178,10 @@
         <v>50.57</v>
       </c>
       <c r="F131" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131" t="n">
-        <v>1354.24</v>
+        <v>1311.92</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>17957.65</v>
+        <v>17865.85</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         <v>163.67</v>
       </c>
       <c r="F147" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G147" t="n">
-        <v>3540.85</v>
+        <v>3386.9</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -4794,10 +4794,10 @@
         <v>179.07</v>
       </c>
       <c r="F153" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153" t="n">
-        <v>6906.04</v>
+        <v>6737.6</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -4825,10 +4825,10 @@
         <v>60.63</v>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G154" t="n">
-        <v>4059.2</v>
+        <v>3957.72</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>32481.54</v>
+        <v>32057.67</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -6150,10 +6150,10 @@
         <v>115.69</v>
       </c>
       <c r="F201" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" t="n">
-        <v>3672.36</v>
+        <v>3570.35</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>85.68000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G202" t="n">
-        <v>12766.16</v>
+        <v>12622.72</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6212,10 +6212,10 @@
         <v>106.44</v>
       </c>
       <c r="F203" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G203" t="n">
-        <v>4632.68</v>
+        <v>4543.59</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -6336,10 +6336,10 @@
         <v>88.77</v>
       </c>
       <c r="F207" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G207" t="n">
-        <v>8916</v>
+        <v>8767.4</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>34953.94</v>
+        <v>34470.8</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G210" t="n">
-        <v>20344.08</v>
+        <v>19759.48</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6438,10 +6438,10 @@
         <v>22.11</v>
       </c>
       <c r="F211" t="n">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="G211" t="n">
-        <v>26140.5</v>
+        <v>26048</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -6624,10 +6624,10 @@
         <v>166.85</v>
       </c>
       <c r="F217" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G217" t="n">
-        <v>1815.32</v>
+        <v>1675.68</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>54751.05</v>
+        <v>53934.31</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7218,10 +7218,10 @@
         <v>98</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>164.06</v>
+        <v>0</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7249,10 +7249,10 @@
         <v>37.34</v>
       </c>
       <c r="F240" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="n">
-        <v>1125</v>
+        <v>1093.75</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7559,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G250" t="n">
-        <v>281.22</v>
+        <v>234.35</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -7714,10 +7714,10 @@
         <v>629.41</v>
       </c>
       <c r="F255" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G255" t="n">
-        <v>8325.450000000001</v>
+        <v>7770.42</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>44783.35</v>
+        <v>43986.14</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -8702,10 +8702,10 @@
         <v>26.75</v>
       </c>
       <c r="F289" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G289" t="n">
-        <v>2509.9</v>
+        <v>2457.06</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>70623.17</v>
+        <v>70570.33</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -9132,10 +9132,10 @@
         <v>32.13</v>
       </c>
       <c r="F305" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G305" t="n">
-        <v>1102.49</v>
+        <v>1075.6</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7167.41</v>
+        <v>7140.52</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9327,10 +9327,10 @@
         <v>64.27</v>
       </c>
       <c r="F312" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G312" t="n">
-        <v>7012.2</v>
+        <v>6951.75</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         <v>27.1</v>
       </c>
       <c r="F313" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G313" t="n">
-        <v>1936.48</v>
+        <v>1911</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -9482,10 +9482,10 @@
         <v>59.67</v>
       </c>
       <c r="F317" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G317" t="n">
-        <v>4378.14</v>
+        <v>4322.01</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>50.39</v>
       </c>
       <c r="F328" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G328" t="n">
-        <v>2180.4</v>
+        <v>2038.2</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -9885,10 +9885,10 @@
         <v>50.39</v>
       </c>
       <c r="F330" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G330" t="n">
-        <v>948</v>
+        <v>853.2</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -9947,10 +9947,10 @@
         <v>42.84</v>
       </c>
       <c r="F332" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G332" t="n">
-        <v>1934.4</v>
+        <v>1894.1</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -10071,10 +10071,10 @@
         <v>198.21</v>
       </c>
       <c r="F336" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G336" t="n">
-        <v>12677.92</v>
+        <v>12491.48</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -10195,10 +10195,10 @@
         <v>30.6</v>
       </c>
       <c r="F340" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G340" t="n">
-        <v>3050.68</v>
+        <v>2964.34</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -10257,10 +10257,10 @@
         <v>78.33</v>
       </c>
       <c r="F342" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G342" t="n">
-        <v>3610.81</v>
+        <v>3537.12</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -10381,10 +10381,10 @@
         <v>38.16</v>
       </c>
       <c r="F346" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G346" t="n">
-        <v>1722.72</v>
+        <v>1686.83</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>122636.31</v>
+        <v>121834.59</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -11418,10 +11418,10 @@
         <v>49.5</v>
       </c>
       <c r="F383" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G383" t="n">
-        <v>538.46</v>
+        <v>497.04</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -11511,10 +11511,10 @@
         <v>11.28</v>
       </c>
       <c r="F386" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G386" t="n">
-        <v>1123.36</v>
+        <v>1095.04</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>26.32</v>
       </c>
       <c r="F387" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G387" t="n">
-        <v>1607.46</v>
+        <v>1585.44</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9016.200000000001</v>
+        <v>8924.440000000001</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -12570,10 +12570,10 @@
         <v>201.46</v>
       </c>
       <c r="F423" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G423" t="n">
-        <v>3197.88</v>
+        <v>3020.22</v>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>3266.41</v>
+        <v>3088.75</v>
       </c>
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr"/>
@@ -13044,10 +13044,10 @@
         <v>62.23</v>
       </c>
       <c r="F439" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G439" t="n">
-        <v>2195.2</v>
+        <v>2140.32</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>43622.06</v>
+        <v>43567.18</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -13682,10 +13682,10 @@
         <v>35.2</v>
       </c>
       <c r="F461" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G461" t="n">
-        <v>2648.8</v>
+        <v>2582.58</v>
       </c>
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr"/>
@@ -13713,10 +13713,10 @@
         <v>16.88</v>
       </c>
       <c r="F462" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G462" t="n">
-        <v>4202.9</v>
+        <v>4187.04</v>
       </c>
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr"/>
@@ -13744,10 +13744,10 @@
         <v>35.2</v>
       </c>
       <c r="F463" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G463" t="n">
-        <v>1953.49</v>
+        <v>1920.38</v>
       </c>
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr"/>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>10375.76</v>
+        <v>10260.57</v>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1587651.11</v>
+        <v>1581135.81</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1587651.11</v>
+        <v>1581135.81</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E15" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E16" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -2791,10 +2791,10 @@
         <v>19.77</v>
       </c>
       <c r="F82" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G82" t="n">
-        <v>793.92</v>
+        <v>760.84</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -2822,10 +2822,10 @@
         <v>74.29000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="n">
-        <v>1927.27</v>
+        <v>1865.1</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G92" t="n">
-        <v>3531.3</v>
+        <v>3441.9</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>128689.17</v>
+        <v>128504.52</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4023,10 +4023,10 @@
         <v>59.12</v>
       </c>
       <c r="F126" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G126" t="n">
-        <v>3711</v>
+        <v>3661.52</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>17865.85</v>
+        <v>17816.37</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
         <v>80.22</v>
       </c>
       <c r="F146" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G146" t="n">
-        <v>6791.4</v>
+        <v>6715.94</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>32057.67</v>
+        <v>31982.21</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G210" t="n">
-        <v>19759.48</v>
+        <v>19174.88</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>53934.31</v>
+        <v>53349.71</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -9132,10 +9132,10 @@
         <v>32.13</v>
       </c>
       <c r="F305" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G305" t="n">
-        <v>1075.6</v>
+        <v>1048.71</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7140.52</v>
+        <v>7113.63</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9327,10 +9327,10 @@
         <v>64.27</v>
       </c>
       <c r="F312" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G312" t="n">
-        <v>6951.75</v>
+        <v>6830.85</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -9358,10 +9358,10 @@
         <v>27.1</v>
       </c>
       <c r="F313" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G313" t="n">
-        <v>1911</v>
+        <v>1885.52</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -9823,10 +9823,10 @@
         <v>50.39</v>
       </c>
       <c r="F328" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G328" t="n">
-        <v>2038.2</v>
+        <v>1990.8</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -10102,10 +10102,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F337" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G337" t="n">
-        <v>8204.58</v>
+        <v>8132.61</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10133,10 +10133,10 @@
         <v>170.29</v>
       </c>
       <c r="F338" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G338" t="n">
-        <v>3844.56</v>
+        <v>3684.37</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -10257,10 +10257,10 @@
         <v>78.33</v>
       </c>
       <c r="F342" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G342" t="n">
-        <v>3537.12</v>
+        <v>3463.43</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>121834.59</v>
+        <v>121334.96</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -13044,10 +13044,10 @@
         <v>62.23</v>
       </c>
       <c r="F439" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G439" t="n">
-        <v>2140.32</v>
+        <v>1975.68</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>43567.18</v>
+        <v>43402.54</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1581135.81</v>
+        <v>1579550.46</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1581135.81</v>
+        <v>1579550.46</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -2791,10 +2791,10 @@
         <v>19.77</v>
       </c>
       <c r="F82" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G82" t="n">
-        <v>760.84</v>
+        <v>727.76</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G92" t="n">
-        <v>3441.9</v>
+        <v>3352.5</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>128504.52</v>
+        <v>128382.04</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4825,10 +4825,10 @@
         <v>60.63</v>
       </c>
       <c r="F154" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G154" t="n">
-        <v>3957.72</v>
+        <v>3856.24</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>31982.21</v>
+        <v>31880.73</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -6119,10 +6119,10 @@
         <v>61.69</v>
       </c>
       <c r="F200" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
-        <v>326.46</v>
+        <v>217.64</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>34470.8</v>
+        <v>34361.98</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G210" t="n">
-        <v>19174.88</v>
+        <v>19057.96</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6438,10 +6438,10 @@
         <v>22.11</v>
       </c>
       <c r="F211" t="n">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="G211" t="n">
-        <v>26048</v>
+        <v>25918.5</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>53349.71</v>
+        <v>53103.29</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7311,10 +7311,10 @@
         <v>101.4</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>84.86</v>
+        <v>0</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>43986.14</v>
+        <v>43901.28</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1579550.46</v>
+        <v>1578886.4</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1579550.46</v>
+        <v>1578886.4</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E15" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E16" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E15" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E16" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1032,10 +1032,10 @@
         <v>398.95</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>667.84</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         <v>173.93</v>
       </c>
       <c r="F22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>11792.79</v>
+        <v>11647.2</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80690.17</v>
+        <v>79876.74000000001</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1595,10 +1595,10 @@
         <v>3228.6</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>13511.6</v>
+        <v>10809.28</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>60785.56</v>
+        <v>58083.24</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
@@ -2140,10 +2140,10 @@
         <v>113.53</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>665.14</v>
+        <v>380.08</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2202,10 +2202,10 @@
         <v>79.64</v>
       </c>
       <c r="F63" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G63" t="n">
-        <v>2247.68</v>
+        <v>2036.96</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2388,10 +2388,10 @@
         <v>134.04</v>
       </c>
       <c r="F69" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G69" t="n">
-        <v>35000.16</v>
+        <v>34887.98</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2543,10 +2543,10 @@
         <v>23.02</v>
       </c>
       <c r="F74" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G74" t="n">
-        <v>386.58</v>
+        <v>159.18</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         <v>112.43</v>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>1975.89</v>
+        <v>1881.8</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -2791,10 +2791,10 @@
         <v>19.77</v>
       </c>
       <c r="F82" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>727.76</v>
+        <v>661.6</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -2822,10 +2822,10 @@
         <v>74.29000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="n">
-        <v>1865.1</v>
+        <v>1802.93</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3101,10 +3101,10 @@
         <v>53.4</v>
       </c>
       <c r="F92" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G92" t="n">
-        <v>3352.5</v>
+        <v>3129</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>128382.04</v>
+        <v>127100.76</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -4023,10 +4023,10 @@
         <v>59.12</v>
       </c>
       <c r="F126" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G126" t="n">
-        <v>3661.52</v>
+        <v>3612.04</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         <v>50.57</v>
       </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>169.28</v>
+        <v>126.96</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>17816.37</v>
+        <v>17724.57</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
@@ -4484,10 +4484,10 @@
         <v>45.85</v>
       </c>
       <c r="F143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>172.52</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -4732,10 +4732,10 @@
         <v>39.44</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>66.02</v>
+        <v>33.01</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         <v>65.01000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>108.82</v>
+        <v>54.41</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>31880.73</v>
+        <v>31707.05</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>85.68000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G202" t="n">
-        <v>12622.72</v>
+        <v>12192.4</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6212,10 +6212,10 @@
         <v>106.44</v>
       </c>
       <c r="F203" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G203" t="n">
-        <v>4543.59</v>
+        <v>4276.32</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -6305,10 +6305,10 @@
         <v>56.32</v>
       </c>
       <c r="F206" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G206" t="n">
-        <v>801.55</v>
+        <v>754.4</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -6336,10 +6336,10 @@
         <v>88.77</v>
       </c>
       <c r="F207" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G207" t="n">
-        <v>8767.4</v>
+        <v>8618.799999999999</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>34361.98</v>
+        <v>33468.64</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
@@ -6407,10 +6407,10 @@
         <v>139.68</v>
       </c>
       <c r="F210" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G210" t="n">
-        <v>19057.96</v>
+        <v>17888.76</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6748,10 +6748,10 @@
         <v>53.26</v>
       </c>
       <c r="F221" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G221" t="n">
-        <v>1114.5</v>
+        <v>1069.92</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>53103.29</v>
+        <v>51889.51</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
@@ -7156,10 +7156,10 @@
         <v>38.33</v>
       </c>
       <c r="F237" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G237" t="n">
-        <v>256.56</v>
+        <v>192.42</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -7249,10 +7249,10 @@
         <v>37.34</v>
       </c>
       <c r="F240" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G240" t="n">
-        <v>1093.75</v>
+        <v>1062.5</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7280,10 +7280,10 @@
         <v>353.35</v>
       </c>
       <c r="F241" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G241" t="n">
-        <v>18632.25</v>
+        <v>17745</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7466,10 +7466,10 @@
         <v>44.98</v>
       </c>
       <c r="F247" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G247" t="n">
-        <v>1204.8</v>
+        <v>1167.15</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -7559,10 +7559,10 @@
         <v>56</v>
       </c>
       <c r="F250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G250" t="n">
-        <v>234.35</v>
+        <v>187.48</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -7776,10 +7776,10 @@
         <v>479.92</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>423.21</v>
+        <v>0</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>43901.28</v>
+        <v>42410.91</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
@@ -8175,10 +8175,10 @@
         <v>51.76</v>
       </c>
       <c r="F272" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G272" t="n">
-        <v>1602.84</v>
+        <v>1386.24</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -8330,10 +8330,10 @@
         <v>57.51</v>
       </c>
       <c r="F277" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G277" t="n">
-        <v>3033.45</v>
+        <v>2937.15</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -8702,10 +8702,10 @@
         <v>26.75</v>
       </c>
       <c r="F289" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G289" t="n">
-        <v>2457.06</v>
+        <v>2245.7</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>70570.33</v>
+        <v>70046.07000000001</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr"/>
@@ -9132,10 +9132,10 @@
         <v>32.13</v>
       </c>
       <c r="F305" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G305" t="n">
-        <v>1048.71</v>
+        <v>1021.82</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>7113.63</v>
+        <v>7086.74</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr"/>
@@ -9234,10 +9234,10 @@
         <v>70.69</v>
       </c>
       <c r="F309" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G309" t="n">
-        <v>3724</v>
+        <v>3657.5</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -9296,10 +9296,10 @@
         <v>53.05</v>
       </c>
       <c r="F311" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G311" t="n">
-        <v>1746.15</v>
+        <v>1696.26</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -9575,10 +9575,10 @@
         <v>195.87</v>
       </c>
       <c r="F320" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G320" t="n">
-        <v>9211.5</v>
+        <v>9027.27</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -9885,10 +9885,10 @@
         <v>50.39</v>
       </c>
       <c r="F330" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G330" t="n">
-        <v>853.2</v>
+        <v>805.8</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -10102,10 +10102,10 @@
         <v>76.51000000000001</v>
       </c>
       <c r="F337" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G337" t="n">
-        <v>8132.61</v>
+        <v>8060.64</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10226,10 +10226,10 @@
         <v>53.05</v>
       </c>
       <c r="F341" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G341" t="n">
-        <v>1147.47</v>
+        <v>1097.58</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>121334.96</v>
+        <v>120865.08</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr"/>
@@ -11387,10 +11387,10 @@
         <v>49.5</v>
       </c>
       <c r="F382" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G382" t="n">
-        <v>497.04</v>
+        <v>372.78</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -11511,10 +11511,10 @@
         <v>11.28</v>
       </c>
       <c r="F386" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G386" t="n">
-        <v>1095.04</v>
+        <v>1066.72</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -11542,10 +11542,10 @@
         <v>26.32</v>
       </c>
       <c r="F387" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G387" t="n">
-        <v>1585.44</v>
+        <v>1541.4</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -11697,10 +11697,10 @@
         <v>116.1</v>
       </c>
       <c r="F392" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G392" t="n">
-        <v>1651.89</v>
+        <v>1554.72</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>8924.440000000001</v>
+        <v>8630.65</v>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr"/>
@@ -12570,10 +12570,10 @@
         <v>201.46</v>
       </c>
       <c r="F423" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G423" t="n">
-        <v>3020.22</v>
+        <v>2842.56</v>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>3088.75</v>
+        <v>2911.09</v>
       </c>
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr"/>
@@ -12920,10 +12920,10 @@
         <v>61.04</v>
       </c>
       <c r="F435" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G435" t="n">
-        <v>1481.32</v>
+        <v>1430.24</v>
       </c>
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr"/>
@@ -12951,10 +12951,10 @@
         <v>60.02</v>
       </c>
       <c r="F436" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G436" t="n">
-        <v>5826.68</v>
+        <v>5776.45</v>
       </c>
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr"/>
@@ -13044,10 +13044,10 @@
         <v>62.23</v>
       </c>
       <c r="F439" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G439" t="n">
-        <v>1975.68</v>
+        <v>1701.28</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>43402.54</v>
+        <v>43026.83</v>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
@@ -13744,10 +13744,10 @@
         <v>35.2</v>
       </c>
       <c r="F463" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G463" t="n">
-        <v>1920.38</v>
+        <v>1821.05</v>
       </c>
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr"/>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>10260.57</v>
+        <v>10161.24</v>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
@@ -17537,10 +17537,10 @@
         <v>47.95</v>
       </c>
       <c r="F596" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G596" t="n">
-        <v>3009.75</v>
+        <v>2929.49</v>
       </c>
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr"/>
@@ -17630,10 +17630,10 @@
         <v>46.5</v>
       </c>
       <c r="F599" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G599" t="n">
-        <v>3970.86</v>
+        <v>3931.93</v>
       </c>
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
@@ -17661,10 +17661,10 @@
         <v>47.22</v>
       </c>
       <c r="F600" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G600" t="n">
-        <v>4664.54</v>
+        <v>4625.01</v>
       </c>
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr"/>
@@ -17680,7 +17680,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>20714.9</v>
+        <v>20556.18</v>
       </c>
       <c r="C601" t="inlineStr"/>
       <c r="D601" t="inlineStr"/>
@@ -17834,7 +17834,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1578886.4</v>
+        <v>1568100.16</v>
       </c>
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr"/>
@@ -17855,7 +17855,7 @@
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1578886.4</v>
+        <v>1568100.16</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E15" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E16" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E99" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E100" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E15" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E16" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -3282,24 +3282,24 @@
         <v>79</v>
       </c>
       <c r="B99" t="n">
-        <v>54863</v>
+        <v>48264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
+          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32143.58</v>
+        <v>32287.23</v>
       </c>
       <c r="E99" t="n">
-        <v>41658.07</v>
+        <v>41844.24</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>32287.23</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3313,24 +3313,24 @@
         <v>80</v>
       </c>
       <c r="B100" t="n">
-        <v>48264</v>
+        <v>54863</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BLUE-Inverter 1.5 ton 5 star Split AC</t>
+          <t>BLUE-Inverter 1.5 Ton 5 Star Split Ac</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>32287.23</v>
+        <v>32143.58</v>
       </c>
       <c r="E100" t="n">
-        <v>41844.24</v>
+        <v>41658.07</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>32287.23</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -832,24 +832,24 @@
         <v>9</v>
       </c>
       <c r="B15" t="n">
-        <v>59408</v>
+        <v>47438</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>388.17</v>
+        <v>401.81</v>
       </c>
       <c r="E15" t="n">
-        <v>463.78</v>
+        <v>480.05</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>14750.46</v>
+        <v>803.62</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -863,24 +863,24 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>47438</v>
+        <v>59408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIG-3w Lilliput LED Torch &amp;amp; Table Lamp</t>
+          <t>SIG-3W Lilliput LED Torch &amp;amp; Table Lamp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>401.81</v>
+        <v>388.17</v>
       </c>
       <c r="E16" t="n">
-        <v>480.05</v>
+        <v>463.78</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>803.62</v>
+        <v>14750.46</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>45731</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="2">

--- a/CryCompanywiseStockReport_1.xlsx
+++ b/CryCompanywiseStockReport_1.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>15-03-2025 00:00:00</t>
+          <t>16-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>15-03-2025 00:00:00</t>
+          <t>16-03-2025 00:00:00</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
